--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_CO.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>829.2932512943352</v>
+        <v>1594.030740511864</v>
       </c>
       <c r="C2">
-        <v>2.645486654066022</v>
+        <v>5.085037221288582</v>
       </c>
       <c r="D2">
-        <v>28.091652034662</v>
+        <v>53.99652876123654</v>
       </c>
       <c r="E2">
-        <v>17.17970771312711</v>
+        <v>33.02207290966349</v>
       </c>
       <c r="F2">
-        <v>10.15850316383625</v>
+        <v>19.52622464426012</v>
       </c>
       <c r="G2">
-        <v>178.4460048977963</v>
+        <v>343.0010034263032</v>
       </c>
       <c r="H2">
-        <v>8.02844767138896</v>
+        <v>15.4319263623704</v>
       </c>
       <c r="I2">
-        <v>1073.843053429212</v>
+        <v>2064.093533836986</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>598.7824626944292</v>
+        <v>1150.95311691564</v>
       </c>
       <c r="C3">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D3">
-        <v>25.53786548605636</v>
+        <v>49.08775341930592</v>
       </c>
       <c r="E3">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F3">
-        <v>12.2219491189905</v>
+        <v>23.49248902512545</v>
       </c>
       <c r="G3">
-        <v>148.2009193218987</v>
+        <v>284.8652401337096</v>
       </c>
       <c r="H3">
-        <v>7.024891712465341</v>
+        <v>13.5029355670741</v>
       </c>
       <c r="I3">
-        <v>799.120861984742</v>
+        <v>1536.034710761091</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>709.263964922786</v>
+        <v>1363.315764911463</v>
       </c>
       <c r="C4">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D4">
-        <v>31.92233185757045</v>
+        <v>61.3596917741324</v>
       </c>
       <c r="E4">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F4">
-        <v>11.58704267125073</v>
+        <v>22.27209998485919</v>
       </c>
       <c r="G4">
-        <v>145.176410764309</v>
+        <v>279.05166380445</v>
       </c>
       <c r="H4">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I4">
-        <v>909.9396350905068</v>
+        <v>1749.045645892531</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>892.0358328067349</v>
+        <v>1714.631750484802</v>
       </c>
       <c r="C5">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D5">
-        <v>29.36854530896482</v>
+        <v>56.45091643220183</v>
       </c>
       <c r="E5">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F5">
-        <v>11.11086283544591</v>
+        <v>21.3568082046595</v>
       </c>
       <c r="G5">
-        <v>136.1028850915396</v>
+        <v>261.6109348166719</v>
       </c>
       <c r="H5">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I5">
-        <v>1081.04892535962</v>
+        <v>2077.94434155951</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>909.7674319298046</v>
+        <v>1748.714644607589</v>
       </c>
       <c r="C6">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D6">
-        <v>30.64543858326763</v>
+        <v>58.90530410316715</v>
       </c>
       <c r="E6">
-        <v>10.73731732070444</v>
+        <v>20.63879556853968</v>
       </c>
       <c r="F6">
-        <v>14.60284829801462</v>
+        <v>28.0689479261239</v>
       </c>
       <c r="G6">
-        <v>151.2254278794885</v>
+        <v>290.6788164629689</v>
       </c>
       <c r="H6">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I6">
-        <v>1124.079088943384</v>
+        <v>2160.65501527441</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>812.9256213345783</v>
+        <v>1562.569607475446</v>
       </c>
       <c r="C7">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D7">
-        <v>38.30679822908455</v>
+        <v>73.63163012895888</v>
       </c>
       <c r="E7">
-        <v>11.81104905277489</v>
+        <v>22.70267512539364</v>
       </c>
       <c r="F7">
-        <v>16.03138780542909</v>
+        <v>30.81482326672299</v>
       </c>
       <c r="G7">
-        <v>136.1028850915396</v>
+        <v>261.6109348166719</v>
       </c>
       <c r="H7">
-        <v>16.05689534277792</v>
+        <v>30.8638527247408</v>
       </c>
       <c r="I7">
-        <v>1032.998294625562</v>
+        <v>1985.583548352127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>896.127740296674</v>
+        <v>1722.497033743907</v>
       </c>
       <c r="C8">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D8">
-        <v>49.79883769780992</v>
+        <v>95.72111916764658</v>
       </c>
       <c r="E8">
-        <v>12.88478078484533</v>
+        <v>24.76655468224762</v>
       </c>
       <c r="F8">
-        <v>11.11086283544591</v>
+        <v>21.3568082046595</v>
       </c>
       <c r="G8">
-        <v>111.9068166308215</v>
+        <v>215.102324182597</v>
       </c>
       <c r="H8">
-        <v>8.02844767138896</v>
+        <v>15.4319263623704</v>
       </c>
       <c r="I8">
-        <v>1091.841600907535</v>
+        <v>2098.689544259394</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>983.4217667487095</v>
+        <v>1890.289743271471</v>
       </c>
       <c r="C9">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D9">
-        <v>45.96815787490146</v>
+        <v>88.35795615475067</v>
       </c>
       <c r="E9">
-        <v>22.54836637347934</v>
+        <v>43.34147069393332</v>
       </c>
       <c r="F9">
-        <v>13.01558217866521</v>
+        <v>25.01797532545827</v>
       </c>
       <c r="G9">
-        <v>87.71074817010332</v>
+        <v>168.5937135485219</v>
       </c>
       <c r="H9">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I9">
-        <v>1159.00514446751</v>
+        <v>2227.788331581261</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1400.796330722503</v>
+        <v>2692.548635700141</v>
       </c>
       <c r="C10">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D10">
-        <v>38.30679822908455</v>
+        <v>73.63163012895888</v>
       </c>
       <c r="E10">
-        <v>19.32717117726799</v>
+        <v>37.14983202337142</v>
       </c>
       <c r="F10">
-        <v>10.95213622351096</v>
+        <v>21.05171094459293</v>
       </c>
       <c r="G10">
-        <v>69.56369682456467</v>
+        <v>133.7122555729656</v>
       </c>
       <c r="H10">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I10">
-        <v>1544.944472003175</v>
+        <v>2969.623805467181</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1396.704423232564</v>
+        <v>2684.683352441036</v>
       </c>
       <c r="C11">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D11">
-        <v>31.92233185757045</v>
+        <v>61.3596917741324</v>
       </c>
       <c r="E11">
-        <v>28.99075676590201</v>
+        <v>55.72474803505713</v>
       </c>
       <c r="F11">
-        <v>6.349064477397659</v>
+        <v>12.20389040266257</v>
       </c>
       <c r="G11">
-        <v>72.58820538215448</v>
+        <v>139.525831902225</v>
       </c>
       <c r="I11">
-        <v>1538.318439484966</v>
+        <v>2956.887539369306</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1085.719453997188</v>
+        <v>2086.921824749086</v>
       </c>
       <c r="C12">
-        <v>3.306858317582527</v>
+        <v>6.356296526610728</v>
       </c>
       <c r="D12">
-        <v>22.98407893745073</v>
+        <v>44.17897807737533</v>
       </c>
       <c r="E12">
-        <v>24.69582983762022</v>
+        <v>47.46922980764123</v>
       </c>
       <c r="F12">
-        <v>7.460150760942249</v>
+        <v>14.33957122312852</v>
       </c>
       <c r="G12">
-        <v>69.56369682456467</v>
+        <v>133.7122555729656</v>
       </c>
       <c r="I12">
-        <v>1213.730068675349</v>
+        <v>2332.978155956807</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>870.2123261937257</v>
+        <v>1672.683573102911</v>
       </c>
       <c r="C13">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D13">
-        <v>28.091652034662</v>
+        <v>53.99652876123654</v>
       </c>
       <c r="E13">
-        <v>17.17970771312711</v>
+        <v>33.02207290966349</v>
       </c>
       <c r="F13">
-        <v>4.444345134178362</v>
+        <v>8.542723281863797</v>
       </c>
       <c r="G13">
-        <v>124.0048508611805</v>
+        <v>238.3566294996345</v>
       </c>
       <c r="H13">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I13">
-        <v>1047.361467328691</v>
+        <v>2013.19180247012</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>650.6132909003255</v>
+        <v>1250.580038197631</v>
       </c>
       <c r="C14">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D14">
-        <v>15.32271929163382</v>
+        <v>29.45265205158358</v>
       </c>
       <c r="E14">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F14">
-        <v>3.333258850633771</v>
+        <v>6.407042461397849</v>
       </c>
       <c r="G14">
-        <v>127.0293594187703</v>
+        <v>244.1702058288938</v>
       </c>
       <c r="I14">
-        <v>807.7258718193748</v>
+        <v>1552.574879365384</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>428.2863172802979</v>
+        <v>823.2329811196144</v>
       </c>
       <c r="C15">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D15">
-        <v>15.32271929163382</v>
+        <v>29.45265205158358</v>
       </c>
       <c r="E15">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F15">
-        <v>3.968165298373537</v>
+        <v>7.627431501664105</v>
       </c>
       <c r="G15">
-        <v>78.63722249733402</v>
+        <v>151.1529845607438</v>
       </c>
       <c r="I15">
-        <v>538.3030393891671</v>
+        <v>1034.702249364806</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>214.1431586401489</v>
+        <v>411.6164905598072</v>
       </c>
       <c r="C16">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D16">
-        <v>8.938252920119725</v>
+        <v>17.18071369675707</v>
       </c>
       <c r="E16">
-        <v>7.516122124493111</v>
+        <v>14.44715689797777</v>
       </c>
       <c r="F16">
-        <v>1.745992731284356</v>
+        <v>3.356069860732205</v>
       </c>
       <c r="G16">
-        <v>60.4901711517954</v>
+        <v>116.2715265851875</v>
       </c>
       <c r="I16">
-        <v>294.817812558391</v>
+        <v>566.6857355164282</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>155.4924846176878</v>
+        <v>298.8807638459748</v>
       </c>
       <c r="C17">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D17">
-        <v>1.276893274302819</v>
+        <v>2.454387670965295</v>
       </c>
       <c r="E17">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F17">
-        <v>1.904719343219298</v>
+        <v>3.661167120798772</v>
       </c>
       <c r="G17">
-        <v>39.31861124866701</v>
+        <v>75.57649228037189</v>
       </c>
       <c r="I17">
-        <v>205.1250249136065</v>
+        <v>394.2822335165729</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>91.38593394197441</v>
+        <v>175.6579927866693</v>
       </c>
       <c r="C18">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D18">
-        <v>5.107573097211274</v>
+        <v>9.817550683861178</v>
       </c>
       <c r="E18">
-        <v>3.221195196211332</v>
+        <v>6.191638670561904</v>
       </c>
       <c r="F18">
-        <v>1.587266119349415</v>
+        <v>3.050972600665642</v>
       </c>
       <c r="G18">
-        <v>39.31861124866701</v>
+        <v>75.57649228037189</v>
       </c>
       <c r="I18">
-        <v>143.7069806998238</v>
+        <v>276.2271904469666</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>72.2903656555917</v>
+        <v>138.9533375775146</v>
       </c>
       <c r="C19">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D19">
-        <v>1.276893274302819</v>
+        <v>2.454387670965295</v>
       </c>
       <c r="F19">
-        <v>1.587266119349415</v>
+        <v>3.050972600665642</v>
       </c>
       <c r="G19">
-        <v>42.34311980625677</v>
+        <v>81.39006860963126</v>
       </c>
       <c r="I19">
-        <v>118.8203881825337</v>
+        <v>228.391285069421</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>64.10655067571336</v>
+        <v>123.2227710593053</v>
       </c>
       <c r="C20">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D20">
-        <v>5.107573097211274</v>
+        <v>9.817550683861178</v>
       </c>
       <c r="E20">
-        <v>1.073731732070444</v>
+        <v>2.063879556853968</v>
       </c>
       <c r="F20">
-        <v>2.698352402894005</v>
+        <v>5.186653421131592</v>
       </c>
       <c r="G20">
-        <v>57.4656625942056</v>
+        <v>110.4579502559282</v>
       </c>
       <c r="I20">
-        <v>131.1132421656112</v>
+        <v>252.0200642824024</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>132.3050088413659</v>
+        <v>254.3108253777153</v>
       </c>
       <c r="C21">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D21">
-        <v>7.661359645816908</v>
+        <v>14.72632602579179</v>
       </c>
       <c r="E21">
-        <v>3.221195196211332</v>
+        <v>6.191638670561904</v>
       </c>
       <c r="F21">
-        <v>2.539625790959064</v>
+        <v>4.88155616106503</v>
       </c>
       <c r="G21">
-        <v>130.0538679763601</v>
+        <v>249.9837821581532</v>
       </c>
       <c r="I21">
-        <v>276.4424291142299</v>
+        <v>531.3653876986093</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>347.8121366448279</v>
+        <v>668.5490770238907</v>
       </c>
       <c r="C22">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D22">
-        <v>25.53786548605636</v>
+        <v>49.08775341930592</v>
       </c>
       <c r="E22">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F22">
-        <v>4.12689191030848</v>
+        <v>7.932528761730669</v>
       </c>
       <c r="G22">
-        <v>244.9851931647714</v>
+        <v>470.8996826700095</v>
       </c>
       <c r="I22">
-        <v>632.7870444581147</v>
+        <v>1216.315217191945</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>799.2859297014473</v>
+        <v>1536.351996611764</v>
       </c>
       <c r="C23">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D23">
-        <v>21.70718566314791</v>
+        <v>41.72459040641005</v>
       </c>
       <c r="E23">
-        <v>36.50687889039511</v>
+        <v>70.17190493303492</v>
       </c>
       <c r="F23">
-        <v>11.11086283544591</v>
+        <v>21.3568082046595</v>
       </c>
       <c r="G23">
-        <v>223.8136332616429</v>
+        <v>430.2046483651939</v>
       </c>
       <c r="H23">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I23">
-        <v>1097.761457514807</v>
+        <v>2110.068430312892</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1033.888625791292</v>
+        <v>1987.294903467095</v>
       </c>
       <c r="C24">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D24">
-        <v>21.70718566314791</v>
+        <v>41.72459040641005</v>
       </c>
       <c r="E24">
-        <v>22.54836637347934</v>
+        <v>43.34147069393332</v>
       </c>
       <c r="F24">
-        <v>9.999776551901315</v>
+        <v>19.22112738419355</v>
       </c>
       <c r="G24">
-        <v>181.4705134553862</v>
+        <v>348.8145797555627</v>
       </c>
       <c r="H24">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I24">
-        <v>1275.171892219107</v>
+        <v>2451.078906600798</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1215.296524511928</v>
+        <v>2335.989127954065</v>
       </c>
       <c r="C25">
-        <v>1.102286105860843</v>
+        <v>2.118765508870242</v>
       </c>
       <c r="D25">
-        <v>37.02990495478172</v>
+        <v>71.17724245799357</v>
       </c>
       <c r="E25">
-        <v>20.40090290933844</v>
+        <v>39.21371158022539</v>
       </c>
       <c r="F25">
-        <v>8.412510432551899</v>
+        <v>16.1701547835279</v>
       </c>
       <c r="G25">
-        <v>145.176410764309</v>
+        <v>279.05166380445</v>
       </c>
       <c r="H25">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I25">
-        <v>1433.439875432312</v>
+        <v>2755.294610860909</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>990.2416125652745</v>
+        <v>1903.398548703313</v>
       </c>
       <c r="C26">
-        <v>3.527315538754697</v>
+        <v>6.780049628384776</v>
       </c>
       <c r="D26">
-        <v>33.19922513187325</v>
+        <v>63.81407944509773</v>
       </c>
       <c r="E26">
-        <v>20.40090290933844</v>
+        <v>39.21371158022539</v>
       </c>
       <c r="F26">
-        <v>12.69812895479532</v>
+        <v>24.40778080532514</v>
       </c>
       <c r="G26">
-        <v>217.7646161464633</v>
+        <v>418.5774957066752</v>
       </c>
       <c r="H26">
-        <v>7.024891712465341</v>
+        <v>13.5029355670741</v>
       </c>
       <c r="I26">
-        <v>1284.856692958965</v>
+        <v>2469.694601436096</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>716.0838107393514</v>
+        <v>1376.424570343304</v>
       </c>
       <c r="C27">
-        <v>2.645486654066022</v>
+        <v>5.085037221288582</v>
       </c>
       <c r="D27">
-        <v>30.64543858326763</v>
+        <v>58.90530410316715</v>
       </c>
       <c r="E27">
-        <v>7.516122124493111</v>
+        <v>14.44715689797777</v>
       </c>
       <c r="F27">
-        <v>15.39648135768933</v>
+        <v>29.59443422645674</v>
       </c>
       <c r="G27">
-        <v>181.4705134553862</v>
+        <v>348.8145797555627</v>
       </c>
       <c r="H27">
-        <v>6.021335753541719</v>
+        <v>11.57394477177779</v>
       </c>
       <c r="I27">
-        <v>959.7791886677954</v>
+        <v>1844.845027319535</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>773.3705155984994</v>
+        <v>1486.538535970769</v>
       </c>
       <c r="C28">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D28">
-        <v>34.47611840617608</v>
+        <v>66.26846711606301</v>
       </c>
       <c r="E28">
-        <v>10.73731732070444</v>
+        <v>20.63879556853968</v>
       </c>
       <c r="F28">
-        <v>12.69812895479532</v>
+        <v>24.40778080532514</v>
       </c>
       <c r="G28">
-        <v>157.274444994668</v>
+        <v>302.3059691214876</v>
       </c>
       <c r="H28">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I28">
-        <v>991.103281781972</v>
+        <v>1905.054811089899</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>853.8446962339697</v>
+        <v>1641.222440066492</v>
       </c>
       <c r="C29">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D29">
-        <v>25.53786548605636</v>
+        <v>49.08775341930592</v>
       </c>
       <c r="E29">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F29">
-        <v>13.01558217866521</v>
+        <v>25.01797532545827</v>
       </c>
       <c r="G29">
-        <v>108.8823080732317</v>
+        <v>209.2887478533376</v>
       </c>
       <c r="H29">
-        <v>4.01422383569448</v>
+        <v>7.7159631811852</v>
       </c>
       <c r="I29">
-        <v>1017.383290829145</v>
+        <v>1955.56907997698</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>938.410784359379</v>
+        <v>1803.771627421321</v>
       </c>
       <c r="C30">
-        <v>2.645486654066022</v>
+        <v>5.085037221288582</v>
       </c>
       <c r="D30">
-        <v>31.92233185757045</v>
+        <v>61.3596917741324</v>
       </c>
       <c r="E30">
-        <v>9.663585588633996</v>
+        <v>18.57491601168571</v>
       </c>
       <c r="F30">
-        <v>10.31722977577119</v>
+        <v>19.83132190432666</v>
       </c>
       <c r="G30">
-        <v>127.0293594187703</v>
+        <v>244.1702058288938</v>
       </c>
       <c r="H30">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I30">
-        <v>1120.992333613115</v>
+        <v>2154.721790956944</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>878.3961411736046</v>
+        <v>1688.41413962112</v>
       </c>
       <c r="C31">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D31">
-        <v>31.92233185757045</v>
+        <v>61.3596917741324</v>
       </c>
       <c r="E31">
-        <v>8.589853856563556</v>
+        <v>16.51103645483174</v>
       </c>
       <c r="F31">
-        <v>15.55520796962427</v>
+        <v>29.8995314865233</v>
       </c>
       <c r="G31">
-        <v>120.9803423035908</v>
+        <v>232.543053170375</v>
       </c>
       <c r="H31">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I31">
-        <v>1062.445771946121</v>
+        <v>2042.186184399431</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>994.3335200552135</v>
+        <v>1911.263831962418</v>
       </c>
       <c r="C32">
-        <v>2.865943875238191</v>
+        <v>5.50879032306263</v>
       </c>
       <c r="D32">
-        <v>24.26097221175354</v>
+        <v>46.63336574834066</v>
       </c>
       <c r="E32">
-        <v>8.589853856563556</v>
+        <v>16.51103645483174</v>
       </c>
       <c r="F32">
-        <v>10.95213622351096</v>
+        <v>21.05171094459293</v>
       </c>
       <c r="G32">
-        <v>127.0293594187703</v>
+        <v>244.1702058288938</v>
       </c>
       <c r="H32">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I32">
-        <v>1171.042453517821</v>
+        <v>2250.925913648028</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1078.899608180623</v>
+        <v>2073.813019317246</v>
       </c>
       <c r="C33">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D33">
-        <v>44.69126460059863</v>
+        <v>85.90356848378541</v>
       </c>
       <c r="E33">
-        <v>20.40090290933844</v>
+        <v>39.21371158022539</v>
       </c>
       <c r="F33">
-        <v>13.33303540253508</v>
+        <v>25.6281698455914</v>
       </c>
       <c r="G33">
-        <v>75.61271393974424</v>
+        <v>145.3394082314844</v>
       </c>
       <c r="H33">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I33">
-        <v>1239.718962596834</v>
+        <v>2382.932856249006</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1290.314828494146</v>
+        <v>2480.185987704316</v>
       </c>
       <c r="C34">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D34">
-        <v>40.86058477769019</v>
+        <v>78.54040547088943</v>
       </c>
       <c r="E34">
-        <v>23.62209810554977</v>
+        <v>45.40535025078728</v>
       </c>
       <c r="F34">
-        <v>9.047416880291667</v>
+        <v>17.39054382379416</v>
       </c>
       <c r="G34">
-        <v>48.39213692143629</v>
+        <v>93.01722126815001</v>
       </c>
       <c r="H34">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I34">
-        <v>1415.665650570931</v>
+        <v>2721.129783432748</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1358.513286659798</v>
+        <v>2611.274042022726</v>
       </c>
       <c r="C35">
-        <v>1.543200548205179</v>
+        <v>2.966271712418339</v>
       </c>
       <c r="D35">
-        <v>29.36854530896482</v>
+        <v>56.45091643220183</v>
       </c>
       <c r="E35">
-        <v>28.99075676590201</v>
+        <v>55.72474803505713</v>
       </c>
       <c r="F35">
-        <v>4.761798358048245</v>
+        <v>9.152917801996926</v>
       </c>
       <c r="G35">
-        <v>66.53918826697489</v>
+        <v>127.8986792437063</v>
       </c>
       <c r="I35">
-        <v>1489.716775907894</v>
+        <v>2863.467575248106</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1268.491321881137</v>
+        <v>2438.237810322426</v>
       </c>
       <c r="C36">
-        <v>1.102286105860843</v>
+        <v>2.118765508870242</v>
       </c>
       <c r="D36">
-        <v>30.64543858326763</v>
+        <v>58.90530410316715</v>
       </c>
       <c r="E36">
-        <v>21.47463464140888</v>
+        <v>41.27759113707937</v>
       </c>
       <c r="F36">
-        <v>6.666517701267542</v>
+        <v>12.8140849227957</v>
       </c>
       <c r="G36">
-        <v>99.80878240046239</v>
+        <v>191.8480188655593</v>
       </c>
       <c r="I36">
-        <v>1428.188981313405</v>
+        <v>2745.201574859897</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>785.646238068317</v>
+        <v>1510.134385748083</v>
       </c>
       <c r="C37">
-        <v>2.425029432893854</v>
+        <v>4.661284119514534</v>
       </c>
       <c r="D37">
-        <v>28.091652034662</v>
+        <v>53.99652876123654</v>
       </c>
       <c r="E37">
-        <v>25.76956156969066</v>
+        <v>49.53310936449523</v>
       </c>
       <c r="F37">
-        <v>3.17453223869883</v>
+        <v>6.101945201331285</v>
       </c>
       <c r="G37">
-        <v>102.8332909580521</v>
+        <v>197.6615951948187</v>
       </c>
       <c r="I37">
-        <v>947.9403043023144</v>
+        <v>1822.08884838948</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>673.8007666766468</v>
+        <v>1295.14997666589</v>
       </c>
       <c r="C38">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D38">
-        <v>22.98407893745073</v>
+        <v>44.17897807737533</v>
       </c>
       <c r="E38">
-        <v>10.73731732070444</v>
+        <v>20.63879556853968</v>
       </c>
       <c r="F38">
-        <v>4.28561852224342</v>
+        <v>8.237626021797235</v>
       </c>
       <c r="G38">
-        <v>99.80878240046239</v>
+        <v>191.8480188655593</v>
       </c>
       <c r="I38">
-        <v>813.6006788480573</v>
+        <v>1563.867173115128</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>467.8414230163765</v>
+        <v>899.2640526242922</v>
       </c>
       <c r="C39">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D39">
-        <v>14.045826017331</v>
+        <v>26.99826438061827</v>
       </c>
       <c r="E39">
-        <v>13.95851251691577</v>
+        <v>26.83043423910159</v>
       </c>
       <c r="F39">
-        <v>2.539625790959064</v>
+        <v>4.88155616106503</v>
       </c>
       <c r="G39">
-        <v>81.66173105492376</v>
+        <v>156.9665608900031</v>
       </c>
       <c r="H39">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I39">
-        <v>584.1370754518401</v>
+        <v>1122.802402515213</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>291.8894009489929</v>
+        <v>561.0568724827947</v>
       </c>
       <c r="C40">
-        <v>1.984114990549517</v>
+        <v>3.813777915966437</v>
       </c>
       <c r="D40">
-        <v>5.107573097211274</v>
+        <v>9.817550683861178</v>
       </c>
       <c r="E40">
-        <v>7.516122124493111</v>
+        <v>14.44715689797777</v>
       </c>
       <c r="F40">
-        <v>2.380899179024123</v>
+        <v>4.576458900998463</v>
       </c>
       <c r="G40">
-        <v>39.31861124866701</v>
+        <v>75.57649228037189</v>
       </c>
       <c r="I40">
-        <v>348.196721588938</v>
+        <v>669.2883091619703</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>156.8564537810008</v>
+        <v>301.5025249323428</v>
       </c>
       <c r="C41">
-        <v>3.086401096410358</v>
+        <v>5.932543424836679</v>
       </c>
       <c r="D41">
-        <v>5.107573097211274</v>
+        <v>9.817550683861178</v>
       </c>
       <c r="E41">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F41">
-        <v>2.539625790959064</v>
+        <v>4.88155616106503</v>
       </c>
       <c r="G41">
-        <v>45.36762836384654</v>
+        <v>87.20364493889068</v>
       </c>
       <c r="I41">
-        <v>218.3263407897802</v>
+        <v>419.6572179252662</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>91.38593394197441</v>
+        <v>175.6579927866693</v>
       </c>
       <c r="C42">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D42">
-        <v>3.830679822908454</v>
+        <v>7.363163012895894</v>
       </c>
       <c r="E42">
-        <v>4.294926928281778</v>
+        <v>8.255518227415871</v>
       </c>
       <c r="F42">
-        <v>2.380899179024123</v>
+        <v>4.576458900998463</v>
       </c>
       <c r="G42">
-        <v>30.2450855758977</v>
+        <v>58.13576329259376</v>
       </c>
       <c r="I42">
-        <v>133.9011832174638</v>
+        <v>257.3789210347657</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>69.56242732896557</v>
+        <v>133.7098154047781</v>
       </c>
       <c r="C43">
-        <v>1.322743327033011</v>
+        <v>2.542518610644291</v>
       </c>
       <c r="D43">
-        <v>2.553786548605637</v>
+        <v>4.908775341930589</v>
       </c>
       <c r="F43">
-        <v>1.587266119349415</v>
+        <v>3.050972600665642</v>
       </c>
       <c r="G43">
-        <v>54.44115403661583</v>
+        <v>104.6443739266688</v>
       </c>
       <c r="I43">
-        <v>129.4673773605695</v>
+        <v>248.8564558846874</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>53.19479736920896</v>
+        <v>102.2486823683597</v>
       </c>
       <c r="C44">
-        <v>0.6613716635165056</v>
+        <v>1.271259305322145</v>
       </c>
       <c r="D44">
-        <v>2.553786548605637</v>
+        <v>4.908775341930589</v>
       </c>
       <c r="E44">
-        <v>1.073731732070444</v>
+        <v>2.063879556853968</v>
       </c>
       <c r="F44">
-        <v>2.539625790959064</v>
+        <v>4.88155616106503</v>
       </c>
       <c r="G44">
-        <v>69.56369682456467</v>
+        <v>133.7122555729656</v>
       </c>
       <c r="I44">
-        <v>129.5870099289253</v>
+        <v>249.0864083064971</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>160.94836127094</v>
+        <v>309.3678081914473</v>
       </c>
       <c r="C45">
-        <v>1.102286105860843</v>
+        <v>2.118765508870242</v>
       </c>
       <c r="D45">
-        <v>10.21514619442255</v>
+        <v>19.63510136772236</v>
       </c>
       <c r="E45">
-        <v>5.368658660352221</v>
+        <v>10.31939778426984</v>
       </c>
       <c r="F45">
-        <v>3.015805626763889</v>
+        <v>5.796847941264721</v>
       </c>
       <c r="G45">
-        <v>114.9313251884112</v>
+        <v>220.9159005118564</v>
       </c>
       <c r="I45">
-        <v>295.5815830467507</v>
+        <v>568.1538213054308</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>285.0695551324275</v>
+        <v>547.9480670509536</v>
       </c>
       <c r="D46">
-        <v>25.53786548605636</v>
+        <v>49.08775341930592</v>
       </c>
       <c r="E46">
-        <v>12.88478078484533</v>
+        <v>24.76655468224762</v>
       </c>
       <c r="F46">
-        <v>5.23797819385307</v>
+        <v>10.06820958219662</v>
       </c>
       <c r="G46">
-        <v>251.0342102799508</v>
+        <v>482.5268353285283</v>
       </c>
       <c r="H46">
-        <v>3.01066787677086</v>
+        <v>5.786972385888897</v>
       </c>
       <c r="I46">
-        <v>582.7750577539039</v>
+        <v>1120.184392449121</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>841.5689737641521</v>
+        <v>1617.626590289179</v>
       </c>
       <c r="C47">
-        <v>1.763657769377348</v>
+        <v>3.390024814192388</v>
       </c>
       <c r="D47">
-        <v>29.36854530896482</v>
+        <v>56.45091643220183</v>
       </c>
       <c r="E47">
-        <v>36.50687889039511</v>
+        <v>70.17190493303492</v>
       </c>
       <c r="F47">
-        <v>11.26958944738085</v>
+        <v>21.66190546472606</v>
       </c>
       <c r="G47">
-        <v>257.0832273951303</v>
+        <v>494.153987987047</v>
       </c>
       <c r="H47">
-        <v>2.00711191784724</v>
+        <v>3.8579815905926</v>
       </c>
       <c r="I47">
-        <v>1179.567984493248</v>
+        <v>2267.313311510974</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1005.245273361718</v>
+        <v>1932.237920653363</v>
       </c>
       <c r="C48">
-        <v>3.306858317582527</v>
+        <v>6.356296526610728</v>
       </c>
       <c r="D48">
-        <v>19.15339911454227</v>
+        <v>36.81581506447944</v>
       </c>
       <c r="E48">
-        <v>23.62209810554977</v>
+        <v>45.40535025078728</v>
       </c>
       <c r="F48">
-        <v>10.31722977577119</v>
+        <v>19.83132190432666</v>
       </c>
       <c r="G48">
-        <v>190.5440391281554</v>
+        <v>366.2553087433407</v>
       </c>
       <c r="H48">
-        <v>5.017779794618101</v>
+        <v>9.644953976481498</v>
       </c>
       <c r="I48">
-        <v>1257.206677597937</v>
+        <v>2416.54696711939</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1278.039106024329</v>
+        <v>2456.590137927002</v>
       </c>
       <c r="C49">
-        <v>0.8818288846886742</v>
+        <v>1.695012407096194</v>
       </c>
       <c r="D49">
-        <v>35.7530116804789</v>
+        <v>68.7228547870283</v>
       </c>
       <c r="E49">
-        <v>21.47463464140888</v>
+        <v>41.27759113707937</v>
       </c>
       <c r="F49">
-        <v>9.364870104161549</v>
+        <v>18.0007383439273</v>
       </c>
       <c r="G49">
-        <v>172.3969877826168</v>
+        <v>331.3738507677845</v>
       </c>
       <c r="H49">
-        <v>1.00355595892362</v>
+        <v>1.9289907952963</v>
       </c>
       <c r="I49">
-        <v>1518.913995076607</v>
+        <v>2919.589176165214</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_CO.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>640.5917929159829</v>
+        <v>373.4302544750537</v>
       </c>
       <c r="C2">
-        <v>2.043519630985131</v>
+        <v>1.191261056202185</v>
       </c>
       <c r="D2">
-        <v>21.69953959563711</v>
+        <v>12.64965408985977</v>
       </c>
       <c r="E2">
-        <v>13.27055266463112</v>
+        <v>7.736012095971008</v>
       </c>
       <c r="F2">
-        <v>7.84698747386154</v>
+        <v>4.574367891739439</v>
       </c>
       <c r="G2">
-        <v>137.8415247414116</v>
+        <v>80.35412915158255</v>
       </c>
       <c r="H2">
-        <v>6.201615267120814</v>
+        <v>3.615205178972754</v>
       </c>
       <c r="I2">
-        <v>829.4955322896302</v>
+        <v>483.5508839393814</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>462.5325610034814</v>
+        <v>269.6313843989286</v>
       </c>
       <c r="C3">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D3">
-        <v>19.72685417785193</v>
+        <v>11.49968553623615</v>
       </c>
       <c r="E3">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F3">
-        <v>9.440906804489666</v>
+        <v>5.503536369749013</v>
       </c>
       <c r="G3">
-        <v>114.4785544462571</v>
+        <v>66.73478522758553</v>
       </c>
       <c r="H3">
-        <v>5.426413358730712</v>
+        <v>3.16330453160116</v>
       </c>
       <c r="I3">
-        <v>617.2849772217468</v>
+        <v>359.843645636243</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>547.8745597307751</v>
+        <v>319.3811386957697</v>
       </c>
       <c r="C4">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D4">
-        <v>24.65856772231491</v>
+        <v>14.37460692029519</v>
       </c>
       <c r="E4">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F4">
-        <v>8.95047008737332</v>
+        <v>5.217638376515299</v>
       </c>
       <c r="G4">
-        <v>112.1422574167416</v>
+        <v>65.37285083518583</v>
       </c>
       <c r="H4">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I4">
-        <v>702.8875025549427</v>
+        <v>409.7452728072224</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>689.0576193537054</v>
+        <v>401.6832013596796</v>
       </c>
       <c r="C5">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D5">
-        <v>22.68588230452972</v>
+        <v>13.22463836667159</v>
       </c>
       <c r="E5">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F5">
-        <v>8.582642549536061</v>
+        <v>5.003214881590015</v>
       </c>
       <c r="G5">
-        <v>105.1333663281953</v>
+        <v>61.28704765798672</v>
       </c>
       <c r="H5">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I5">
-        <v>835.0617447388684</v>
+        <v>486.7956837547512</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>702.7544833469749</v>
+        <v>409.6677298270736</v>
       </c>
       <c r="C6">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D6">
-        <v>23.67222501342229</v>
+        <v>13.79962264348339</v>
       </c>
       <c r="E6">
-        <v>8.294095415394452</v>
+        <v>4.835007559981879</v>
       </c>
       <c r="F6">
-        <v>11.28004449367596</v>
+        <v>6.575653844375447</v>
       </c>
       <c r="G6">
-        <v>116.8148514757726</v>
+        <v>68.09671961998522</v>
       </c>
       <c r="H6">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I6">
-        <v>868.30061361495</v>
+        <v>506.1721406499551</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>627.9485338452727</v>
+        <v>366.0599205051513</v>
       </c>
       <c r="C7">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D7">
-        <v>29.59028126677789</v>
+        <v>17.24952830435423</v>
       </c>
       <c r="E7">
-        <v>9.123504956933896</v>
+        <v>5.31850831598007</v>
       </c>
       <c r="F7">
-        <v>12.38352710718775</v>
+        <v>7.218924329151302</v>
       </c>
       <c r="G7">
-        <v>105.1333663281953</v>
+        <v>61.28704765798672</v>
       </c>
       <c r="H7">
-        <v>12.40323053424163</v>
+        <v>7.230410357945507</v>
       </c>
       <c r="I7">
-        <v>797.9447904592658</v>
+        <v>465.1585135080372</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>692.2184341213832</v>
+        <v>403.5257848521552</v>
       </c>
       <c r="C8">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D8">
-        <v>38.46736564681123</v>
+        <v>22.42438679566051</v>
       </c>
       <c r="E8">
-        <v>9.952914498473341</v>
+        <v>5.802009071978256</v>
       </c>
       <c r="F8">
-        <v>8.582642549536061</v>
+        <v>5.003214881590015</v>
       </c>
       <c r="G8">
-        <v>86.44299009207165</v>
+        <v>50.39157251878907</v>
       </c>
       <c r="H8">
-        <v>6.201615267120814</v>
+        <v>3.615205178972754</v>
       </c>
       <c r="I8">
-        <v>843.3986018986352</v>
+        <v>491.6556190912974</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>759.6491491651708</v>
+        <v>442.8342326916343</v>
       </c>
       <c r="C9">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D9">
-        <v>35.50833752013343</v>
+        <v>20.69943396522509</v>
       </c>
       <c r="E9">
-        <v>17.41760037232834</v>
+        <v>10.15351587596195</v>
       </c>
       <c r="F9">
-        <v>10.0539527008851</v>
+        <v>5.860908861291156</v>
       </c>
       <c r="G9">
-        <v>67.75261385594806</v>
+        <v>39.49609737959142</v>
       </c>
       <c r="H9">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I9">
-        <v>895.2794229719088</v>
+        <v>521.899322538663</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1082.05225546828</v>
+        <v>630.7777489241449</v>
       </c>
       <c r="C10">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D10">
-        <v>29.59028126677789</v>
+        <v>17.24952830435423</v>
       </c>
       <c r="E10">
-        <v>14.92937174771001</v>
+        <v>8.703013607967385</v>
       </c>
       <c r="F10">
-        <v>8.460033370256973</v>
+        <v>4.931740383281586</v>
       </c>
       <c r="G10">
-        <v>53.73483167885537</v>
+        <v>31.3244910251932</v>
       </c>
       <c r="H10">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I10">
-        <v>1193.40022088868</v>
+        <v>695.6875706265794</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1078.891440700603</v>
+        <v>628.9351654316695</v>
       </c>
       <c r="C11">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D11">
-        <v>24.65856772231491</v>
+        <v>14.37460692029519</v>
       </c>
       <c r="E11">
-        <v>22.39405762156502</v>
+        <v>13.05452041195108</v>
       </c>
       <c r="F11">
-        <v>4.904367171163463</v>
+        <v>2.85897993233715</v>
       </c>
       <c r="G11">
-        <v>56.07112870837081</v>
+        <v>32.68642541759291</v>
       </c>
       <c r="I11">
-        <v>1188.281908344674</v>
+        <v>692.7038721513139</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>838.6695183571096</v>
+        <v>488.8988200035245</v>
       </c>
       <c r="C12">
-        <v>2.554399538731414</v>
+        <v>1.489076320252731</v>
       </c>
       <c r="D12">
-        <v>17.75416876006672</v>
+        <v>10.34971698261255</v>
       </c>
       <c r="E12">
-        <v>19.07641945540724</v>
+        <v>11.12051738795833</v>
       </c>
       <c r="F12">
-        <v>5.762631426117069</v>
+        <v>3.359301420496151</v>
       </c>
       <c r="G12">
-        <v>53.73483167885537</v>
+        <v>31.3244910251932</v>
       </c>
       <c r="I12">
-        <v>937.5519692162875</v>
+        <v>546.5419231400374</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>672.1999405927586</v>
+        <v>391.8560893998098</v>
       </c>
       <c r="C13">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D13">
-        <v>21.69953959563711</v>
+        <v>12.64965408985977</v>
       </c>
       <c r="E13">
-        <v>13.27055266463112</v>
+        <v>7.736012095971008</v>
       </c>
       <c r="F13">
-        <v>3.433057019814424</v>
+        <v>2.001285952636005</v>
       </c>
       <c r="G13">
-        <v>95.78817821013345</v>
+        <v>55.83931008838788</v>
       </c>
       <c r="H13">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I13">
-        <v>809.0396963197678</v>
+        <v>471.6262415755547</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>502.5695480607301</v>
+        <v>292.9707753036195</v>
       </c>
       <c r="C14">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D14">
-        <v>11.83611250671114</v>
+        <v>6.899811321741697</v>
       </c>
       <c r="E14">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F14">
-        <v>2.574792764860819</v>
+        <v>1.500964464477004</v>
       </c>
       <c r="G14">
-        <v>98.12447523964893</v>
+        <v>57.20124448078759</v>
       </c>
       <c r="I14">
-        <v>623.9319608664629</v>
+        <v>363.7184764120776</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>330.8319456835833</v>
+        <v>192.8570722124456</v>
       </c>
       <c r="C15">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D15">
-        <v>11.83611250671114</v>
+        <v>6.899811321741697</v>
       </c>
       <c r="E15">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F15">
-        <v>3.065229481977163</v>
+        <v>1.786862457710719</v>
       </c>
       <c r="G15">
-        <v>60.74372276740171</v>
+        <v>35.41029420239231</v>
       </c>
       <c r="I15">
-        <v>415.8149226419314</v>
+        <v>242.3975362997927</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>165.4159728417917</v>
+        <v>96.42853610622278</v>
       </c>
       <c r="C16">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D16">
-        <v>6.904398962248171</v>
+        <v>4.024889937682654</v>
       </c>
       <c r="E16">
-        <v>5.805866790776117</v>
+        <v>3.384505291987316</v>
       </c>
       <c r="F16">
-        <v>1.348700972069953</v>
+        <v>0.7862194813927161</v>
       </c>
       <c r="G16">
-        <v>46.72594059030902</v>
+        <v>27.23868784799408</v>
       </c>
       <c r="I16">
-        <v>227.7335198804338</v>
+        <v>132.7562844574312</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>120.1109611717469</v>
+        <v>70.01817271407259</v>
       </c>
       <c r="C17">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D17">
-        <v>0.9863427088925962</v>
+        <v>0.5749842768118079</v>
       </c>
       <c r="E17">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F17">
-        <v>1.471310151349039</v>
+        <v>0.8576939797011449</v>
       </c>
       <c r="G17">
-        <v>30.37186138370086</v>
+        <v>17.70514710119616</v>
       </c>
       <c r="I17">
-        <v>158.4498695440433</v>
+        <v>92.36767588924076</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>70.59152981146526</v>
+        <v>41.15103133195492</v>
       </c>
       <c r="C18">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D18">
-        <v>3.945370835570385</v>
+        <v>2.299937107247231</v>
       </c>
       <c r="E18">
-        <v>2.488228624618335</v>
+        <v>1.450502267994564</v>
       </c>
       <c r="F18">
-        <v>1.226091792790866</v>
+        <v>0.7147449830842876</v>
       </c>
       <c r="G18">
-        <v>30.37186138370086</v>
+        <v>17.70514710119616</v>
       </c>
       <c r="I18">
-        <v>111.007188684295</v>
+        <v>64.71116735704638</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>55.84106089563669</v>
+        <v>32.55230836706884</v>
       </c>
       <c r="C19">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D19">
-        <v>0.9863427088925962</v>
+        <v>0.5749842768118079</v>
       </c>
       <c r="F19">
-        <v>1.226091792790866</v>
+        <v>0.7147449830842876</v>
       </c>
       <c r="G19">
-        <v>32.70815841321632</v>
+        <v>19.06708149359585</v>
       </c>
       <c r="I19">
-        <v>91.78341362602904</v>
+        <v>53.50474964866187</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>49.51943136028157</v>
+        <v>28.86714138211764</v>
       </c>
       <c r="C20">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D20">
-        <v>3.945370835570385</v>
+        <v>2.299937107247231</v>
       </c>
       <c r="E20">
-        <v>0.8294095415394452</v>
+        <v>0.483500755998188</v>
       </c>
       <c r="F20">
-        <v>2.084356047744472</v>
+        <v>1.215066471243289</v>
       </c>
       <c r="G20">
-        <v>44.38964356079354</v>
+        <v>25.87675345559439</v>
       </c>
       <c r="I20">
-        <v>101.2790912536757</v>
+        <v>59.04021443625129</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>102.1996774882407</v>
+        <v>59.57686625671085</v>
       </c>
       <c r="C21">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D21">
-        <v>5.918056253355572</v>
+        <v>3.449905660870848</v>
       </c>
       <c r="E21">
-        <v>2.488228624618335</v>
+        <v>1.450502267994564</v>
       </c>
       <c r="F21">
-        <v>1.961746868465385</v>
+        <v>1.14359197293486</v>
       </c>
       <c r="G21">
-        <v>100.4607722691643</v>
+        <v>58.56317887318728</v>
       </c>
       <c r="I21">
-        <v>213.5393614115906</v>
+        <v>124.4818602957489</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>268.6692552525915</v>
+        <v>156.6195968604255</v>
       </c>
       <c r="C22">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D22">
-        <v>19.72685417785193</v>
+        <v>11.49968553623615</v>
       </c>
       <c r="E22">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F22">
-        <v>3.18783866125625</v>
+        <v>1.858336956019148</v>
       </c>
       <c r="G22">
-        <v>189.2400593907514</v>
+        <v>110.3166857843761</v>
       </c>
       <c r="I22">
-        <v>488.7995732640525</v>
+        <v>284.943627205091</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>617.4124846196814</v>
+        <v>359.9179755302328</v>
       </c>
       <c r="C23">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D23">
-        <v>16.76782605117413</v>
+        <v>9.774732705800734</v>
       </c>
       <c r="E23">
-        <v>28.19992441234113</v>
+        <v>16.4390257039384</v>
       </c>
       <c r="F23">
-        <v>8.582642549536061</v>
+        <v>5.003214881590015</v>
       </c>
       <c r="G23">
-        <v>172.8859801841433</v>
+        <v>100.7831450375781</v>
       </c>
       <c r="H23">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I23">
-        <v>847.9714252659292</v>
+        <v>494.3213269767274</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>798.6325312998606</v>
+        <v>465.5594290988334</v>
       </c>
       <c r="C24">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D24">
-        <v>16.76782605117413</v>
+        <v>9.774732705800734</v>
       </c>
       <c r="E24">
-        <v>17.41760037232834</v>
+        <v>10.15351587596195</v>
       </c>
       <c r="F24">
-        <v>7.724378294582452</v>
+        <v>4.502893393431011</v>
       </c>
       <c r="G24">
-        <v>140.1778217709271</v>
+        <v>81.71606354398227</v>
       </c>
       <c r="H24">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I24">
-        <v>985.0130185405077</v>
+        <v>574.2091394902803</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>938.7619860002321</v>
+        <v>547.2472972652515</v>
       </c>
       <c r="C25">
-        <v>0.8514665129104714</v>
+        <v>0.496358773417577</v>
       </c>
       <c r="D25">
-        <v>28.60393855788528</v>
+        <v>16.67454402754243</v>
       </c>
       <c r="E25">
-        <v>15.75878128924946</v>
+        <v>9.186514363965573</v>
       </c>
       <c r="F25">
-        <v>6.498286501791588</v>
+        <v>3.788148410346724</v>
       </c>
       <c r="G25">
-        <v>112.1422574167416</v>
+        <v>65.37285083518583</v>
       </c>
       <c r="H25">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I25">
-        <v>1107.267927729151</v>
+        <v>645.4771175599391</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>764.917173777967</v>
+        <v>445.9052051790937</v>
       </c>
       <c r="C26">
-        <v>2.724692841313508</v>
+        <v>1.588348074936247</v>
       </c>
       <c r="D26">
-        <v>25.64491043120749</v>
+        <v>14.94959119710701</v>
       </c>
       <c r="E26">
-        <v>15.75878128924946</v>
+        <v>9.186514363965573</v>
       </c>
       <c r="F26">
-        <v>9.808734342326925</v>
+        <v>5.717959864674301</v>
       </c>
       <c r="G26">
-        <v>168.2133861251124</v>
+        <v>98.05927625277872</v>
       </c>
       <c r="H26">
-        <v>5.426413358730712</v>
+        <v>3.16330453160116</v>
       </c>
       <c r="I26">
-        <v>992.4940921659074</v>
+        <v>578.5701994641568</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>553.142584343571</v>
+        <v>322.4521111832288</v>
       </c>
       <c r="C27">
-        <v>2.043519630985131</v>
+        <v>1.191261056202185</v>
       </c>
       <c r="D27">
-        <v>23.67222501342229</v>
+        <v>13.79962264348339</v>
       </c>
       <c r="E27">
-        <v>5.805866790776117</v>
+        <v>3.384505291987316</v>
       </c>
       <c r="F27">
-        <v>11.89309039007139</v>
+        <v>6.933026335917589</v>
       </c>
       <c r="G27">
-        <v>140.1778217709271</v>
+        <v>81.71606354398227</v>
       </c>
       <c r="H27">
-        <v>4.651211450340611</v>
+        <v>2.711403884229565</v>
       </c>
       <c r="I27">
-        <v>741.3863193900935</v>
+        <v>432.1879939390311</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>597.3939910910569</v>
+        <v>348.2482800778872</v>
       </c>
       <c r="C28">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D28">
-        <v>26.63125314010009</v>
+        <v>15.52457547391881</v>
       </c>
       <c r="E28">
-        <v>8.294095415394452</v>
+        <v>4.835007559981879</v>
       </c>
       <c r="F28">
-        <v>9.808734342326925</v>
+        <v>5.717959864674301</v>
       </c>
       <c r="G28">
-        <v>121.4874455348034</v>
+        <v>70.82058840478463</v>
       </c>
       <c r="H28">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I28">
-        <v>765.5827745501466</v>
+        <v>446.293214311403</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>659.5566815220486</v>
+        <v>384.4857554299074</v>
       </c>
       <c r="C29">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D29">
-        <v>19.72685417785193</v>
+        <v>11.49968553623615</v>
       </c>
       <c r="E29">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F29">
-        <v>10.0539527008851</v>
+        <v>5.860908861291156</v>
       </c>
       <c r="G29">
-        <v>84.1066930625562</v>
+        <v>49.02963812638936</v>
       </c>
       <c r="H29">
-        <v>3.100807633560407</v>
+        <v>1.807602589486377</v>
       </c>
       <c r="I29">
-        <v>785.8829012991604</v>
+        <v>458.1270866488128</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>724.8801867207177</v>
+        <v>422.5658142744028</v>
       </c>
       <c r="C30">
-        <v>2.043519630985131</v>
+        <v>1.191261056202185</v>
       </c>
       <c r="D30">
-        <v>24.65856772231491</v>
+        <v>14.37460692029519</v>
       </c>
       <c r="E30">
-        <v>7.464685873855004</v>
+        <v>4.351506803983693</v>
       </c>
       <c r="F30">
-        <v>7.969596653140625</v>
+        <v>4.645842390047867</v>
       </c>
       <c r="G30">
-        <v>98.12447523964893</v>
+        <v>57.20124448078759</v>
       </c>
       <c r="H30">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I30">
-        <v>865.9162337490524</v>
+        <v>504.7821765730909</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>678.5215701281139</v>
+        <v>395.541256384761</v>
       </c>
       <c r="C31">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D31">
-        <v>24.65856772231491</v>
+        <v>14.37460692029519</v>
       </c>
       <c r="E31">
-        <v>6.635276332315562</v>
+        <v>3.868006047985504</v>
       </c>
       <c r="F31">
-        <v>12.01569956935049</v>
+        <v>7.004500834226017</v>
       </c>
       <c r="G31">
-        <v>93.45188118061805</v>
+        <v>54.47737569598817</v>
       </c>
       <c r="H31">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I31">
-        <v>820.6916441979022</v>
+        <v>478.4186949122654</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>768.0779885456442</v>
+        <v>447.7477886715693</v>
       </c>
       <c r="C32">
-        <v>2.213812933567225</v>
+        <v>1.2905328108857</v>
       </c>
       <c r="D32">
-        <v>18.74051146895933</v>
+        <v>10.92470125942435</v>
       </c>
       <c r="E32">
-        <v>6.635276332315562</v>
+        <v>3.868006047985504</v>
       </c>
       <c r="F32">
-        <v>8.460033370256973</v>
+        <v>4.931740383281586</v>
       </c>
       <c r="G32">
-        <v>98.12447523964893</v>
+        <v>57.20124448078759</v>
       </c>
       <c r="H32">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I32">
-        <v>904.5777036155625</v>
+        <v>527.3197155960488</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>833.4014937443133</v>
+        <v>485.827847516065</v>
       </c>
       <c r="C33">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D33">
-        <v>34.52199481124087</v>
+        <v>20.12444968841328</v>
       </c>
       <c r="E33">
-        <v>15.75878128924946</v>
+        <v>9.186514363965573</v>
       </c>
       <c r="F33">
-        <v>10.29917105944327</v>
+        <v>6.003857857908016</v>
       </c>
       <c r="G33">
-        <v>58.40742573788628</v>
+        <v>34.04835980999261</v>
       </c>
       <c r="H33">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I33">
-        <v>957.6272226047404</v>
+        <v>558.2447065106705</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>996.7102567409869</v>
+        <v>581.027994627304</v>
       </c>
       <c r="C34">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D34">
-        <v>31.56296668456308</v>
+        <v>18.39949685797785</v>
       </c>
       <c r="E34">
-        <v>18.24700991386779</v>
+        <v>10.63701663196014</v>
       </c>
       <c r="F34">
-        <v>6.988723218907934</v>
+        <v>4.074046403580439</v>
       </c>
       <c r="G34">
-        <v>37.38075247224719</v>
+        <v>21.79095027839527</v>
       </c>
       <c r="H34">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I34">
-        <v>1093.538137267366</v>
+        <v>637.473394748108</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1049.390502868946</v>
+        <v>611.7377195018971</v>
       </c>
       <c r="C35">
-        <v>1.19205311807466</v>
+        <v>0.6949022827846082</v>
       </c>
       <c r="D35">
-        <v>22.68588230452972</v>
+        <v>13.22463836667159</v>
       </c>
       <c r="E35">
-        <v>22.39405762156502</v>
+        <v>13.05452041195108</v>
       </c>
       <c r="F35">
-        <v>3.678275378372597</v>
+        <v>2.144234949252862</v>
       </c>
       <c r="G35">
-        <v>51.39853464933993</v>
+        <v>29.96255663279351</v>
       </c>
       <c r="I35">
-        <v>1150.739305940828</v>
+        <v>670.8185721453508</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>979.8525779800401</v>
+        <v>571.2008826674343</v>
       </c>
       <c r="C36">
-        <v>0.8514665129104714</v>
+        <v>0.496358773417577</v>
       </c>
       <c r="D36">
-        <v>23.67222501342229</v>
+        <v>13.79962264348339</v>
       </c>
       <c r="E36">
-        <v>16.5881908307889</v>
+        <v>9.670015119963757</v>
       </c>
       <c r="F36">
-        <v>5.149585529721637</v>
+        <v>3.001928928954008</v>
       </c>
       <c r="G36">
-        <v>77.09780197400988</v>
+        <v>44.94383494919025</v>
       </c>
       <c r="I36">
-        <v>1103.211847840893</v>
+        <v>643.1126430824432</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>606.8764353940893</v>
+        <v>353.7760305553142</v>
       </c>
       <c r="C37">
-        <v>1.873226328403037</v>
+        <v>1.09198930151867</v>
       </c>
       <c r="D37">
-        <v>21.69953959563711</v>
+        <v>12.64965408985977</v>
       </c>
       <c r="E37">
-        <v>19.90582899694668</v>
+        <v>11.60401814395651</v>
       </c>
       <c r="F37">
-        <v>2.452183585581731</v>
+        <v>1.429489966168575</v>
       </c>
       <c r="G37">
-        <v>79.43409900352532</v>
+        <v>46.30576934158998</v>
       </c>
       <c r="I37">
-        <v>732.2413129041831</v>
+        <v>426.8569513984077</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>520.4808317442365</v>
+        <v>303.4120817609812</v>
       </c>
       <c r="C38">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D38">
-        <v>17.75416876006672</v>
+        <v>10.34971698261255</v>
       </c>
       <c r="E38">
-        <v>8.294095415394452</v>
+        <v>4.835007559981879</v>
       </c>
       <c r="F38">
-        <v>3.310447840535338</v>
+        <v>1.929811454327576</v>
       </c>
       <c r="G38">
-        <v>77.09780197400988</v>
+        <v>44.94383494919025</v>
       </c>
       <c r="I38">
-        <v>628.4699854574817</v>
+        <v>366.3638984992451</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>361.3864884377996</v>
+        <v>210.6687126397097</v>
       </c>
       <c r="C39">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D39">
-        <v>10.84976979781855</v>
+        <v>6.324827044929886</v>
       </c>
       <c r="E39">
-        <v>10.78232404001279</v>
+        <v>6.285509827976446</v>
       </c>
       <c r="F39">
-        <v>1.961746868465385</v>
+        <v>1.14359197293486</v>
       </c>
       <c r="G39">
-        <v>63.08001979691716</v>
+        <v>36.77222859479203</v>
       </c>
       <c r="H39">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I39">
-        <v>451.219657085553</v>
+        <v>263.0365752932838</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>225.4714534276651</v>
+        <v>131.4376224632591</v>
       </c>
       <c r="C40">
-        <v>1.532639723238848</v>
+        <v>0.8934457921516387</v>
       </c>
       <c r="D40">
-        <v>3.945370835570385</v>
+        <v>2.299937107247231</v>
       </c>
       <c r="E40">
-        <v>5.805866790776117</v>
+        <v>3.384505291987316</v>
       </c>
       <c r="F40">
-        <v>1.839137689186298</v>
+        <v>1.072117474626431</v>
       </c>
       <c r="G40">
-        <v>30.37186138370086</v>
+        <v>17.70514710119616</v>
       </c>
       <c r="I40">
-        <v>268.9663298501376</v>
+        <v>156.7927752304679</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>121.164566094306</v>
+        <v>70.63236721156446</v>
       </c>
       <c r="C41">
-        <v>2.38410623614932</v>
+        <v>1.389804565569216</v>
       </c>
       <c r="D41">
-        <v>3.945370835570385</v>
+        <v>2.299937107247231</v>
       </c>
       <c r="E41">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F41">
-        <v>1.961746868465385</v>
+        <v>1.14359197293486</v>
       </c>
       <c r="G41">
-        <v>35.04445544273177</v>
+        <v>20.42901588599557</v>
       </c>
       <c r="I41">
-        <v>168.6472931849201</v>
+        <v>98.31222052330227</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>70.59152981146526</v>
+        <v>41.15103133195492</v>
       </c>
       <c r="C42">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D42">
-        <v>2.959028126677786</v>
+        <v>1.724952830435424</v>
       </c>
       <c r="E42">
-        <v>3.317638166157781</v>
+        <v>1.934003023992752</v>
       </c>
       <c r="F42">
-        <v>1.839137689186298</v>
+        <v>1.072117474626431</v>
       </c>
       <c r="G42">
-        <v>23.36297029515451</v>
+        <v>13.61934392399704</v>
       </c>
       <c r="I42">
-        <v>103.4326505092984</v>
+        <v>60.2956226224747</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>53.73385105051832</v>
+        <v>31.3239193720851</v>
       </c>
       <c r="C43">
-        <v>1.021759815492566</v>
+        <v>0.5956305281010925</v>
       </c>
       <c r="D43">
-        <v>1.972685417785192</v>
+        <v>1.149968553623616</v>
       </c>
       <c r="F43">
-        <v>1.226091792790866</v>
+        <v>0.7147449830842876</v>
       </c>
       <c r="G43">
-        <v>42.0533465312781</v>
+        <v>24.51481906319468</v>
       </c>
       <c r="I43">
-        <v>100.007734607865</v>
+        <v>58.29908250008877</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>41.09059197980814</v>
+        <v>23.95358540218274</v>
       </c>
       <c r="C44">
-        <v>0.5108799077462828</v>
+        <v>0.2978152640505463</v>
       </c>
       <c r="D44">
-        <v>1.972685417785192</v>
+        <v>1.149968553623616</v>
       </c>
       <c r="E44">
-        <v>0.8294095415394452</v>
+        <v>0.483500755998188</v>
       </c>
       <c r="F44">
-        <v>1.961746868465385</v>
+        <v>1.14359197293486</v>
       </c>
       <c r="G44">
-        <v>53.73483167885537</v>
+        <v>31.3244910251932</v>
       </c>
       <c r="I44">
-        <v>100.1001453941998</v>
+        <v>58.35295297398314</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>124.3253808619835</v>
+        <v>72.47495070404005</v>
       </c>
       <c r="C45">
-        <v>0.8514665129104714</v>
+        <v>0.496358773417577</v>
       </c>
       <c r="D45">
-        <v>7.89074167114077</v>
+        <v>4.599874214494463</v>
       </c>
       <c r="E45">
-        <v>4.147047707697226</v>
+        <v>2.417503779990939</v>
       </c>
       <c r="F45">
-        <v>2.329574406302644</v>
+        <v>1.358015467860146</v>
       </c>
       <c r="G45">
-        <v>88.77928712158709</v>
+        <v>51.75350691118879</v>
       </c>
       <c r="I45">
-        <v>228.3234982816217</v>
+        <v>133.100209850992</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>220.2034288148691</v>
+        <v>128.3666499757997</v>
       </c>
       <c r="D46">
-        <v>19.72685417785193</v>
+        <v>11.49968553623615</v>
       </c>
       <c r="E46">
-        <v>9.952914498473341</v>
+        <v>5.802009071978256</v>
       </c>
       <c r="F46">
-        <v>4.046102916209855</v>
+        <v>2.358658444178148</v>
       </c>
       <c r="G46">
-        <v>193.9126534497825</v>
+        <v>113.0405545691755</v>
       </c>
       <c r="H46">
-        <v>2.325605725170306</v>
+        <v>1.355701942114782</v>
       </c>
       <c r="I46">
-        <v>450.1675595823571</v>
+        <v>262.4232595394826</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>650.0742372190157</v>
+        <v>378.9580049524805</v>
       </c>
       <c r="C47">
-        <v>1.362346420656754</v>
+        <v>0.7941740374681233</v>
       </c>
       <c r="D47">
-        <v>22.68588230452972</v>
+        <v>13.22463836667159</v>
       </c>
       <c r="E47">
-        <v>28.19992441234113</v>
+        <v>16.4390257039384</v>
       </c>
       <c r="F47">
-        <v>8.705251728815146</v>
+        <v>5.074689379898441</v>
       </c>
       <c r="G47">
-        <v>198.5852475088132</v>
+        <v>115.7644233539749</v>
       </c>
       <c r="H47">
-        <v>1.550403816780203</v>
+        <v>0.9038012947431884</v>
       </c>
       <c r="I47">
-        <v>911.1632934109518</v>
+        <v>531.158757089175</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>776.5068279261177</v>
+        <v>452.6613446515044</v>
       </c>
       <c r="C48">
-        <v>2.554399538731414</v>
+        <v>1.489076320252731</v>
       </c>
       <c r="D48">
-        <v>14.79514063338894</v>
+        <v>8.624764152177116</v>
       </c>
       <c r="E48">
-        <v>18.24700991386779</v>
+        <v>10.63701663196014</v>
       </c>
       <c r="F48">
-        <v>7.969596653140625</v>
+        <v>4.645842390047867</v>
       </c>
       <c r="G48">
-        <v>147.1867128594734</v>
+        <v>85.80186672118134</v>
       </c>
       <c r="H48">
-        <v>3.876009541950509</v>
+        <v>2.259503236857971</v>
       </c>
       <c r="I48">
-        <v>971.1356970666704</v>
+        <v>566.1194141039815</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>987.2278124379542</v>
+        <v>575.5002441498773</v>
       </c>
       <c r="C49">
-        <v>0.681173210328377</v>
+        <v>0.3970870187340617</v>
       </c>
       <c r="D49">
-        <v>27.61759584899269</v>
+        <v>16.09955975073062</v>
       </c>
       <c r="E49">
-        <v>16.5881908307889</v>
+        <v>9.670015119963757</v>
       </c>
       <c r="F49">
-        <v>7.233941577466107</v>
+        <v>4.216995400197294</v>
       </c>
       <c r="G49">
-        <v>133.1689306823807</v>
+        <v>77.63026036678313</v>
       </c>
       <c r="H49">
-        <v>0.7752019083901017</v>
+        <v>0.4519006473715942</v>
       </c>
       <c r="I49">
-        <v>1173.292846496301</v>
+        <v>683.9660624536577</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_CO.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>373.4302544750537</v>
+        <v>126.0150664695813</v>
       </c>
       <c r="C2">
-        <v>1.191261056202185</v>
+        <v>2.043519630985131</v>
       </c>
       <c r="D2">
-        <v>12.64965408985977</v>
+        <v>21.32176232762148</v>
       </c>
       <c r="E2">
-        <v>7.736012095971008</v>
+        <v>13.27055266463112</v>
       </c>
       <c r="F2">
-        <v>4.574367891739439</v>
+        <v>7.044344540362858</v>
       </c>
       <c r="G2">
-        <v>80.35412915158255</v>
+        <v>136.9854681118088</v>
       </c>
       <c r="H2">
-        <v>3.615205178972754</v>
+        <v>6.201615267120814</v>
       </c>
       <c r="I2">
-        <v>483.5508839393814</v>
+        <v>312.8823290121115</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>269.6313843989286</v>
+        <v>90.98785226997732</v>
       </c>
       <c r="C3">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D3">
-        <v>11.49968553623615</v>
+        <v>19.38342029783773</v>
       </c>
       <c r="E3">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F3">
-        <v>5.503536369749013</v>
+        <v>8.475227025124065</v>
       </c>
       <c r="G3">
-        <v>66.73478522758553</v>
+        <v>113.7675921606548</v>
       </c>
       <c r="H3">
-        <v>3.16330453160116</v>
+        <v>5.426413358730712</v>
       </c>
       <c r="I3">
-        <v>359.843645636243</v>
+        <v>243.7201925432607</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>319.3811386957697</v>
+        <v>107.7760436910893</v>
       </c>
       <c r="C4">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D4">
-        <v>14.37460692029519</v>
+        <v>24.22927537229715</v>
       </c>
       <c r="E4">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F4">
-        <v>5.217638376515299</v>
+        <v>8.034955491351386</v>
       </c>
       <c r="G4">
-        <v>65.37285083518583</v>
+        <v>111.4458045655394</v>
       </c>
       <c r="H4">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I4">
-        <v>409.7452728072224</v>
+        <v>260.7477267180148</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>401.6832013596796</v>
+        <v>135.549101103793</v>
       </c>
       <c r="C5">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D5">
-        <v>13.22463836667159</v>
+        <v>22.29093334251337</v>
       </c>
       <c r="E5">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F5">
-        <v>5.003214881590015</v>
+        <v>7.704751841021877</v>
       </c>
       <c r="G5">
-        <v>61.28704765798672</v>
+        <v>104.4804417801931</v>
       </c>
       <c r="H5">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I5">
-        <v>486.7956837547512</v>
+        <v>279.6274622704233</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>409.6677298270736</v>
+        <v>138.2435021960704</v>
       </c>
       <c r="C6">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D6">
-        <v>13.79962264348339</v>
+        <v>23.26010435740524</v>
       </c>
       <c r="E6">
-        <v>4.835007559981879</v>
+        <v>8.294095415394452</v>
       </c>
       <c r="F6">
-        <v>6.575653844375447</v>
+        <v>10.12624527677161</v>
       </c>
       <c r="G6">
-        <v>68.09671961998522</v>
+        <v>116.0893797557702</v>
       </c>
       <c r="H6">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I6">
-        <v>506.1721406499551</v>
+        <v>301.4982408711215</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>366.0599205051513</v>
+        <v>123.527926999787</v>
       </c>
       <c r="C7">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D7">
-        <v>17.24952830435423</v>
+        <v>29.07513044675658</v>
       </c>
       <c r="E7">
-        <v>5.31850831598007</v>
+        <v>9.123504956933896</v>
       </c>
       <c r="F7">
-        <v>7.218924329151302</v>
+        <v>11.11685622776014</v>
       </c>
       <c r="G7">
-        <v>61.28704765798672</v>
+        <v>104.4804417801931</v>
       </c>
       <c r="H7">
-        <v>7.230410357945507</v>
+        <v>12.40323053424163</v>
       </c>
       <c r="I7">
-        <v>465.1585135080372</v>
+        <v>291.0894373663291</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>403.5257848521552</v>
+        <v>136.1708859712417</v>
       </c>
       <c r="C8">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D8">
-        <v>22.42438679566051</v>
+        <v>37.79766958078354</v>
       </c>
       <c r="E8">
-        <v>5.802009071978256</v>
+        <v>9.952914498473341</v>
       </c>
       <c r="F8">
-        <v>5.003214881590015</v>
+        <v>7.704751841021877</v>
       </c>
       <c r="G8">
-        <v>50.39157251878907</v>
+        <v>85.90614101926994</v>
       </c>
       <c r="H8">
-        <v>3.615205178972754</v>
+        <v>6.201615267120814</v>
       </c>
       <c r="I8">
-        <v>491.6556190912974</v>
+        <v>285.26661790115</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>442.8342326916343</v>
+        <v>149.435629810145</v>
       </c>
       <c r="C9">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D9">
-        <v>20.69943396522509</v>
+        <v>34.89015653610786</v>
       </c>
       <c r="E9">
-        <v>10.15351587596195</v>
+        <v>17.41760037232834</v>
       </c>
       <c r="F9">
-        <v>5.860908861291156</v>
+        <v>9.025566442339914</v>
       </c>
       <c r="G9">
-        <v>39.49609737959142</v>
+        <v>67.33184025834667</v>
       </c>
       <c r="H9">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I9">
-        <v>521.899322538663</v>
+        <v>282.9985627767109</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>630.7777489241449</v>
+        <v>212.8576862899013</v>
       </c>
       <c r="C10">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D10">
-        <v>17.24952830435423</v>
+        <v>29.07513044675658</v>
       </c>
       <c r="E10">
-        <v>8.703013607967385</v>
+        <v>14.92937174771001</v>
       </c>
       <c r="F10">
-        <v>4.931740383281586</v>
+        <v>7.594683957578707</v>
       </c>
       <c r="G10">
-        <v>31.3244910251932</v>
+        <v>53.40111468765428</v>
       </c>
       <c r="H10">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I10">
-        <v>695.6875706265794</v>
+        <v>322.4914344864002</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>628.9351654316695</v>
+        <v>212.2359014224528</v>
       </c>
       <c r="C11">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D11">
-        <v>14.37460692029519</v>
+        <v>24.22927537229715</v>
       </c>
       <c r="E11">
-        <v>13.05452041195108</v>
+        <v>22.39405762156502</v>
       </c>
       <c r="F11">
-        <v>2.85897993233715</v>
+        <v>4.402715337726787</v>
       </c>
       <c r="G11">
-        <v>32.68642541759291</v>
+        <v>55.7229022827697</v>
       </c>
       <c r="I11">
-        <v>692.7038721513139</v>
+        <v>320.3471984574682</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>488.8988200035245</v>
+        <v>164.9802514963597</v>
       </c>
       <c r="C12">
-        <v>1.489076320252731</v>
+        <v>2.554399538731414</v>
       </c>
       <c r="D12">
-        <v>10.34971698261255</v>
+        <v>17.44507826805393</v>
       </c>
       <c r="E12">
-        <v>11.12051738795833</v>
+        <v>19.07641945540724</v>
       </c>
       <c r="F12">
-        <v>3.359301420496151</v>
+        <v>5.173190521828976</v>
       </c>
       <c r="G12">
-        <v>31.3244910251932</v>
+        <v>53.40111468765428</v>
       </c>
       <c r="I12">
-        <v>546.5419231400374</v>
+        <v>262.6304539680356</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>391.8560893998098</v>
+        <v>132.2329151440673</v>
       </c>
       <c r="C13">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D13">
-        <v>12.64965408985977</v>
+        <v>21.32176232762148</v>
       </c>
       <c r="E13">
-        <v>7.736012095971008</v>
+        <v>13.27055266463112</v>
       </c>
       <c r="F13">
-        <v>2.001285952636005</v>
+        <v>3.081900736408751</v>
       </c>
       <c r="G13">
-        <v>55.83931008838788</v>
+        <v>95.19329139973154</v>
       </c>
       <c r="H13">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I13">
-        <v>471.6262415755547</v>
+        <v>267.7488505092533</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>292.9707753036195</v>
+        <v>98.86379392432615</v>
       </c>
       <c r="C14">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D14">
-        <v>6.899811321741697</v>
+        <v>11.63005217870262</v>
       </c>
       <c r="E14">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F14">
-        <v>1.500964464477004</v>
+        <v>2.311425552306563</v>
       </c>
       <c r="G14">
-        <v>57.20124448078759</v>
+        <v>97.51507899484693</v>
       </c>
       <c r="I14">
-        <v>363.7184764120776</v>
+        <v>219.147382944694</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>192.8570722124456</v>
+        <v>65.08014945961936</v>
       </c>
       <c r="C15">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D15">
-        <v>6.899811321741697</v>
+        <v>11.63005217870262</v>
       </c>
       <c r="E15">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F15">
-        <v>1.786862457710719</v>
+        <v>2.751697086079242</v>
       </c>
       <c r="G15">
-        <v>35.41029420239231</v>
+        <v>60.36647747300048</v>
       </c>
       <c r="I15">
-        <v>242.3975362997927</v>
+        <v>149.1662883996597</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>96.42853610622278</v>
+        <v>32.54007472980968</v>
       </c>
       <c r="C16">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D16">
-        <v>4.024889937682654</v>
+        <v>6.784197104243198</v>
       </c>
       <c r="E16">
-        <v>3.384505291987316</v>
+        <v>5.805866790776117</v>
       </c>
       <c r="F16">
-        <v>0.7862194813927161</v>
+        <v>1.210746717874866</v>
       </c>
       <c r="G16">
-        <v>27.23868784799408</v>
+        <v>46.43575190230805</v>
       </c>
       <c r="I16">
-        <v>132.7562844574312</v>
+        <v>94.30927696825077</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>70.01817271407259</v>
+        <v>23.62782496304651</v>
       </c>
       <c r="C17">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D17">
-        <v>0.5749842768118079</v>
+        <v>0.9691710148918862</v>
       </c>
       <c r="E17">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F17">
-        <v>0.8576939797011449</v>
+        <v>1.320814601318036</v>
       </c>
       <c r="G17">
-        <v>17.70514710119616</v>
+        <v>30.18323873650024</v>
       </c>
       <c r="I17">
-        <v>92.36767588924076</v>
+        <v>61.61044344411064</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>41.15103133195492</v>
+        <v>13.88652870635189</v>
       </c>
       <c r="C18">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D18">
-        <v>2.299937107247231</v>
+        <v>3.876684059567545</v>
       </c>
       <c r="E18">
-        <v>1.450502267994564</v>
+        <v>2.488228624618335</v>
       </c>
       <c r="F18">
-        <v>0.7147449830842876</v>
+        <v>1.100678834431697</v>
       </c>
       <c r="G18">
-        <v>17.70514710119616</v>
+        <v>30.18323873650024</v>
       </c>
       <c r="I18">
-        <v>64.71116735704638</v>
+        <v>53.91946519761903</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>32.55230836706884</v>
+        <v>10.98486599159179</v>
       </c>
       <c r="C19">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D19">
-        <v>0.5749842768118079</v>
+        <v>0.9691710148918862</v>
       </c>
       <c r="F19">
-        <v>0.7147449830842876</v>
+        <v>1.100678834431697</v>
       </c>
       <c r="G19">
-        <v>19.06708149359585</v>
+        <v>32.50502633161565</v>
       </c>
       <c r="I19">
-        <v>53.50474964866187</v>
+        <v>46.58150198802359</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>28.86714138211764</v>
+        <v>9.741296256694611</v>
       </c>
       <c r="C20">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D20">
-        <v>2.299937107247231</v>
+        <v>3.876684059567545</v>
       </c>
       <c r="E20">
-        <v>0.483500755998188</v>
+        <v>0.8294095415394452</v>
       </c>
       <c r="F20">
-        <v>1.215066471243289</v>
+        <v>1.871154018533885</v>
       </c>
       <c r="G20">
-        <v>25.87675345559439</v>
+        <v>44.11396430719266</v>
       </c>
       <c r="I20">
-        <v>59.04021443625129</v>
+        <v>60.94338809127443</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>59.57686625671085</v>
+        <v>20.10437738083781</v>
       </c>
       <c r="C21">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D21">
-        <v>3.449905660870848</v>
+        <v>5.815026089351311</v>
       </c>
       <c r="E21">
-        <v>1.450502267994564</v>
+        <v>2.488228624618335</v>
       </c>
       <c r="F21">
-        <v>1.14359197293486</v>
+        <v>1.761086135090715</v>
       </c>
       <c r="G21">
-        <v>58.56317887318728</v>
+        <v>99.8368665899623</v>
       </c>
       <c r="I21">
-        <v>124.4818602957489</v>
+        <v>130.5164647276067</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>156.6195968604255</v>
+        <v>52.85171373313032</v>
       </c>
       <c r="C22">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D22">
-        <v>11.49968553623615</v>
+        <v>19.38342029783773</v>
       </c>
       <c r="E22">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F22">
-        <v>1.858336956019148</v>
+        <v>2.86176496952241</v>
       </c>
       <c r="G22">
-        <v>110.3166857843761</v>
+        <v>188.0647952043477</v>
       </c>
       <c r="I22">
-        <v>284.943627205091</v>
+        <v>271.1372599864394</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>359.9179755302328</v>
+        <v>121.4553107749583</v>
       </c>
       <c r="C23">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D23">
-        <v>9.774732705800734</v>
+        <v>16.47590725316206</v>
       </c>
       <c r="E23">
-        <v>16.4390257039384</v>
+        <v>28.19992441234113</v>
       </c>
       <c r="F23">
-        <v>5.003214881590015</v>
+        <v>7.704751841021877</v>
       </c>
       <c r="G23">
-        <v>100.7831450375781</v>
+        <v>171.8122820385399</v>
       </c>
       <c r="H23">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I23">
-        <v>494.3213269767274</v>
+        <v>349.7707437690762</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>465.5594290988334</v>
+        <v>157.104309842011</v>
       </c>
       <c r="C24">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D24">
-        <v>9.774732705800734</v>
+        <v>16.47590725316206</v>
       </c>
       <c r="E24">
-        <v>10.15351587596195</v>
+        <v>17.41760037232834</v>
       </c>
       <c r="F24">
-        <v>4.502893393431011</v>
+        <v>6.934276656919688</v>
       </c>
       <c r="G24">
-        <v>81.71606354398227</v>
+        <v>139.3072557069243</v>
       </c>
       <c r="H24">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I24">
-        <v>574.2091394902803</v>
+        <v>341.5322105829804</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>547.2472972652515</v>
+        <v>184.6701056322319</v>
       </c>
       <c r="C25">
-        <v>0.496358773417577</v>
+        <v>0.8514665129104714</v>
       </c>
       <c r="D25">
-        <v>16.67454402754243</v>
+        <v>28.10595943186468</v>
       </c>
       <c r="E25">
-        <v>9.186514363965573</v>
+        <v>15.75878128924946</v>
       </c>
       <c r="F25">
-        <v>3.788148410346724</v>
+        <v>5.833597822487992</v>
       </c>
       <c r="G25">
-        <v>65.37285083518583</v>
+        <v>111.4458045655394</v>
       </c>
       <c r="H25">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I25">
-        <v>645.4771175599391</v>
+        <v>351.3169267046245</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>445.9052051790937</v>
+        <v>150.4719379225592</v>
       </c>
       <c r="C26">
-        <v>1.588348074936247</v>
+        <v>2.724692841313508</v>
       </c>
       <c r="D26">
-        <v>14.94959119710701</v>
+        <v>25.19844638718902</v>
       </c>
       <c r="E26">
-        <v>9.186514363965573</v>
+        <v>15.75878128924946</v>
       </c>
       <c r="F26">
-        <v>5.717959864674301</v>
+        <v>8.805430675453573</v>
       </c>
       <c r="G26">
-        <v>98.05927625277872</v>
+        <v>167.1687068483089</v>
       </c>
       <c r="H26">
-        <v>3.16330453160116</v>
+        <v>5.426413358730712</v>
       </c>
       <c r="I26">
-        <v>578.5701994641568</v>
+        <v>375.5544093228045</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>322.4521111832288</v>
+        <v>108.8123518035036</v>
       </c>
       <c r="C27">
-        <v>1.191261056202185</v>
+        <v>2.043519630985131</v>
       </c>
       <c r="D27">
-        <v>13.79962264348339</v>
+        <v>23.26010435740524</v>
       </c>
       <c r="E27">
-        <v>3.384505291987316</v>
+        <v>5.805866790776117</v>
       </c>
       <c r="F27">
-        <v>6.933026335917589</v>
+        <v>10.67658469398746</v>
       </c>
       <c r="G27">
-        <v>81.71606354398227</v>
+        <v>139.3072557069243</v>
       </c>
       <c r="H27">
-        <v>2.711403884229565</v>
+        <v>4.651211450340611</v>
       </c>
       <c r="I27">
-        <v>432.1879939390311</v>
+        <v>294.5568944339224</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>348.2482800778872</v>
+        <v>117.5173399477839</v>
       </c>
       <c r="C28">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D28">
-        <v>15.52457547391881</v>
+        <v>26.16761740208092</v>
       </c>
       <c r="E28">
-        <v>4.835007559981879</v>
+        <v>8.294095415394452</v>
       </c>
       <c r="F28">
-        <v>5.717959864674301</v>
+        <v>8.805430675453573</v>
       </c>
       <c r="G28">
-        <v>70.82058840478463</v>
+        <v>120.732954946001</v>
       </c>
       <c r="H28">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I28">
-        <v>446.293214311403</v>
+        <v>283.4846934131785</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>384.4857554299074</v>
+        <v>129.7457756742729</v>
       </c>
       <c r="C29">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D29">
-        <v>11.49968553623615</v>
+        <v>19.38342029783773</v>
       </c>
       <c r="E29">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F29">
-        <v>5.860908861291156</v>
+        <v>9.025566442339914</v>
       </c>
       <c r="G29">
-        <v>49.02963812638936</v>
+        <v>83.58435342415447</v>
       </c>
       <c r="H29">
-        <v>1.807602589486377</v>
+        <v>3.100807633560407</v>
       </c>
       <c r="I29">
-        <v>458.1270866488128</v>
+        <v>254.1778356744234</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>422.5658142744028</v>
+        <v>142.5959962682105</v>
       </c>
       <c r="C30">
-        <v>1.191261056202185</v>
+        <v>2.043519630985131</v>
       </c>
       <c r="D30">
-        <v>14.37460692029519</v>
+        <v>24.22927537229715</v>
       </c>
       <c r="E30">
-        <v>4.351506803983693</v>
+        <v>7.464685873855004</v>
       </c>
       <c r="F30">
-        <v>4.645842390047867</v>
+        <v>7.15441242380603</v>
       </c>
       <c r="G30">
-        <v>57.20124448078759</v>
+        <v>97.51507899484693</v>
       </c>
       <c r="H30">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I30">
-        <v>504.7821765730909</v>
+        <v>281.7781704723909</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>395.541256384761</v>
+        <v>133.4764848789644</v>
       </c>
       <c r="C31">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D31">
-        <v>14.37460692029519</v>
+        <v>24.22927537229715</v>
       </c>
       <c r="E31">
-        <v>3.868006047985504</v>
+        <v>6.635276332315562</v>
       </c>
       <c r="F31">
-        <v>7.004500834226017</v>
+        <v>10.78665257743063</v>
       </c>
       <c r="G31">
-        <v>54.47737569598817</v>
+        <v>92.8715038046161</v>
       </c>
       <c r="H31">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I31">
-        <v>478.4186949122654</v>
+        <v>273.4078422308131</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>447.7477886715693</v>
+        <v>151.0937227900079</v>
       </c>
       <c r="C32">
-        <v>1.2905328108857</v>
+        <v>2.213812933567225</v>
       </c>
       <c r="D32">
-        <v>10.92470125942435</v>
+        <v>18.41424928294584</v>
       </c>
       <c r="E32">
-        <v>3.868006047985504</v>
+        <v>6.635276332315562</v>
       </c>
       <c r="F32">
-        <v>4.931740383281586</v>
+        <v>7.594683957578707</v>
       </c>
       <c r="G32">
-        <v>57.20124448078759</v>
+        <v>97.51507899484693</v>
       </c>
       <c r="H32">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I32">
-        <v>527.3197155960488</v>
+        <v>285.7924300164324</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>485.827847516065</v>
+        <v>163.9439433839455</v>
       </c>
       <c r="C33">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D33">
-        <v>20.12444968841328</v>
+        <v>33.92098552121602</v>
       </c>
       <c r="E33">
-        <v>9.186514363965573</v>
+        <v>15.75878128924946</v>
       </c>
       <c r="F33">
-        <v>6.003857857908016</v>
+        <v>9.245702209226254</v>
       </c>
       <c r="G33">
-        <v>34.04835980999261</v>
+        <v>58.04468987788508</v>
       </c>
       <c r="H33">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I33">
-        <v>558.2447065106705</v>
+        <v>286.1524582441296</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>581.027994627304</v>
+        <v>196.0694948687895</v>
       </c>
       <c r="C34">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D34">
-        <v>18.39949685797785</v>
+        <v>31.01347247654036</v>
       </c>
       <c r="E34">
-        <v>10.63701663196014</v>
+        <v>18.24700991386779</v>
       </c>
       <c r="F34">
-        <v>4.074046403580439</v>
+        <v>6.273869356260671</v>
       </c>
       <c r="G34">
-        <v>21.79095027839527</v>
+        <v>37.14860152184644</v>
       </c>
       <c r="H34">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I34">
-        <v>637.473394748108</v>
+        <v>291.4008763740979</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>611.7377195018971</v>
+        <v>206.4325759929326</v>
       </c>
       <c r="C35">
-        <v>0.6949022827846082</v>
+        <v>1.19205311807466</v>
       </c>
       <c r="D35">
-        <v>13.22463836667159</v>
+        <v>22.29093334251337</v>
       </c>
       <c r="E35">
-        <v>13.05452041195108</v>
+        <v>22.39405762156502</v>
       </c>
       <c r="F35">
-        <v>2.144234949252862</v>
+        <v>3.302036503295091</v>
       </c>
       <c r="G35">
-        <v>29.96255663279351</v>
+        <v>51.07932709253888</v>
       </c>
       <c r="I35">
-        <v>670.8185721453508</v>
+        <v>306.6909836709195</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>571.2008826674343</v>
+        <v>192.7533089090635</v>
       </c>
       <c r="C36">
-        <v>0.496358773417577</v>
+        <v>0.8514665129104714</v>
       </c>
       <c r="D36">
-        <v>13.79962264348339</v>
+        <v>23.26010435740524</v>
       </c>
       <c r="E36">
-        <v>9.670015119963757</v>
+        <v>16.5881908307889</v>
       </c>
       <c r="F36">
-        <v>3.001928928954008</v>
+        <v>4.622851104613127</v>
       </c>
       <c r="G36">
-        <v>44.94383494919025</v>
+        <v>76.61899063880828</v>
       </c>
       <c r="I36">
-        <v>643.1126430824432</v>
+        <v>314.6949123535895</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>353.7760305553142</v>
+        <v>119.3826945501297</v>
       </c>
       <c r="C37">
-        <v>1.09198930151867</v>
+        <v>1.873226328403037</v>
       </c>
       <c r="D37">
-        <v>12.64965408985977</v>
+        <v>21.32176232762148</v>
       </c>
       <c r="E37">
-        <v>11.60401814395651</v>
+        <v>19.90582899694668</v>
       </c>
       <c r="F37">
-        <v>1.429489966168575</v>
+        <v>2.201357668863393</v>
       </c>
       <c r="G37">
-        <v>46.30576934158998</v>
+        <v>78.94077823392368</v>
       </c>
       <c r="I37">
-        <v>426.8569513984077</v>
+        <v>243.625648105888</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>303.4120817609812</v>
+        <v>102.3872415065348</v>
       </c>
       <c r="C38">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D38">
-        <v>10.34971698261255</v>
+        <v>17.44507826805393</v>
       </c>
       <c r="E38">
-        <v>4.835007559981879</v>
+        <v>8.294095415394452</v>
       </c>
       <c r="F38">
-        <v>1.929811454327576</v>
+        <v>2.971832852965581</v>
       </c>
       <c r="G38">
-        <v>44.94383494919025</v>
+        <v>76.61899063880828</v>
       </c>
       <c r="I38">
-        <v>366.3638984992451</v>
+        <v>209.2498784049959</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>210.6687126397097</v>
+        <v>71.09073651162238</v>
       </c>
       <c r="C39">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D39">
-        <v>6.324827044929886</v>
+        <v>10.66088116381074</v>
       </c>
       <c r="E39">
-        <v>6.285509827976446</v>
+        <v>10.78232404001279</v>
       </c>
       <c r="F39">
-        <v>1.14359197293486</v>
+        <v>1.761086135090715</v>
       </c>
       <c r="G39">
-        <v>36.77222859479203</v>
+        <v>62.68826506811589</v>
       </c>
       <c r="H39">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I39">
-        <v>263.0365752932838</v>
+        <v>160.1426010631919</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>131.4376224632591</v>
+        <v>44.35398721133289</v>
       </c>
       <c r="C40">
-        <v>0.8934457921516387</v>
+        <v>1.532639723238848</v>
       </c>
       <c r="D40">
-        <v>2.299937107247231</v>
+        <v>3.876684059567545</v>
       </c>
       <c r="E40">
-        <v>3.384505291987316</v>
+        <v>5.805866790776117</v>
       </c>
       <c r="F40">
-        <v>1.072117474626431</v>
+        <v>1.651018251647545</v>
       </c>
       <c r="G40">
-        <v>17.70514710119616</v>
+        <v>30.18323873650024</v>
       </c>
       <c r="I40">
-        <v>156.7927752304679</v>
+        <v>87.40343477306318</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>70.63236721156446</v>
+        <v>23.83508658552936</v>
       </c>
       <c r="C41">
-        <v>1.389804565569216</v>
+        <v>2.38410623614932</v>
       </c>
       <c r="D41">
-        <v>2.299937107247231</v>
+        <v>3.876684059567545</v>
       </c>
       <c r="E41">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F41">
-        <v>1.14359197293486</v>
+        <v>1.761086135090715</v>
       </c>
       <c r="G41">
-        <v>20.42901588599557</v>
+        <v>34.82681392673106</v>
       </c>
       <c r="I41">
-        <v>98.31222052330227</v>
+        <v>70.83082465076524</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>41.15103133195492</v>
+        <v>13.88652870635189</v>
       </c>
       <c r="C42">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D42">
-        <v>1.724952830435424</v>
+        <v>2.907513044675655</v>
       </c>
       <c r="E42">
-        <v>1.934003023992752</v>
+        <v>3.317638166157781</v>
       </c>
       <c r="F42">
-        <v>1.072117474626431</v>
+        <v>1.651018251647545</v>
       </c>
       <c r="G42">
-        <v>13.61934392399704</v>
+        <v>23.21787595115402</v>
       </c>
       <c r="I42">
-        <v>60.2956226224747</v>
+        <v>46.34292054064365</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>31.3239193720851</v>
+        <v>10.57034274662606</v>
       </c>
       <c r="C43">
-        <v>0.5956305281010925</v>
+        <v>1.021759815492566</v>
       </c>
       <c r="D43">
-        <v>1.149968553623616</v>
+        <v>1.938342029783772</v>
       </c>
       <c r="F43">
-        <v>0.7147449830842876</v>
+        <v>1.100678834431697</v>
       </c>
       <c r="G43">
-        <v>24.51481906319468</v>
+        <v>41.79217671207724</v>
       </c>
       <c r="I43">
-        <v>58.29908250008877</v>
+        <v>56.42330013841134</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>23.95358540218274</v>
+        <v>8.083203276831693</v>
       </c>
       <c r="C44">
-        <v>0.2978152640505463</v>
+        <v>0.5108799077462828</v>
       </c>
       <c r="D44">
-        <v>1.149968553623616</v>
+        <v>1.938342029783772</v>
       </c>
       <c r="E44">
-        <v>0.483500755998188</v>
+        <v>0.8294095415394452</v>
       </c>
       <c r="F44">
-        <v>1.14359197293486</v>
+        <v>1.761086135090715</v>
       </c>
       <c r="G44">
-        <v>31.3244910251932</v>
+        <v>53.40111468765428</v>
       </c>
       <c r="I44">
-        <v>58.35295297398314</v>
+        <v>66.52403557864619</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>72.47495070404005</v>
+        <v>24.45687145297795</v>
       </c>
       <c r="C45">
-        <v>0.496358773417577</v>
+        <v>0.8514665129104714</v>
       </c>
       <c r="D45">
-        <v>4.599874214494463</v>
+        <v>7.753368119135089</v>
       </c>
       <c r="E45">
-        <v>2.417503779990939</v>
+        <v>4.147047707697226</v>
       </c>
       <c r="F45">
-        <v>1.358015467860146</v>
+        <v>2.091289785420223</v>
       </c>
       <c r="G45">
-        <v>51.75350691118879</v>
+        <v>88.22792861438532</v>
       </c>
       <c r="I45">
-        <v>133.100209850992</v>
+        <v>127.5279721925263</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>128.3666499757997</v>
+        <v>43.3176790989186</v>
       </c>
       <c r="D46">
-        <v>11.49968553623615</v>
+        <v>19.38342029783773</v>
       </c>
       <c r="E46">
-        <v>5.802009071978256</v>
+        <v>9.952914498473341</v>
       </c>
       <c r="F46">
-        <v>2.358658444178148</v>
+        <v>3.632240153624599</v>
       </c>
       <c r="G46">
-        <v>113.0405545691755</v>
+        <v>192.7083703945785</v>
       </c>
       <c r="H46">
-        <v>1.355701942114782</v>
+        <v>2.325605725170306</v>
       </c>
       <c r="I46">
-        <v>262.4232595394826</v>
+        <v>271.3202301686031</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>378.9580049524805</v>
+        <v>127.8804210719272</v>
       </c>
       <c r="C47">
-        <v>0.7941740374681233</v>
+        <v>1.362346420656754</v>
       </c>
       <c r="D47">
-        <v>13.22463836667159</v>
+        <v>22.29093334251337</v>
       </c>
       <c r="E47">
-        <v>16.4390257039384</v>
+        <v>28.19992441234113</v>
       </c>
       <c r="F47">
-        <v>5.074689379898441</v>
+        <v>7.814819724465046</v>
       </c>
       <c r="G47">
-        <v>115.7644233539749</v>
+        <v>197.3519455848092</v>
       </c>
       <c r="H47">
-        <v>0.9038012947431884</v>
+        <v>1.550403816780203</v>
       </c>
       <c r="I47">
-        <v>531.158757089175</v>
+        <v>386.4507943734928</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>452.6613446515044</v>
+        <v>152.7518157698709</v>
       </c>
       <c r="C48">
-        <v>1.489076320252731</v>
+        <v>2.554399538731414</v>
       </c>
       <c r="D48">
-        <v>8.624764152177116</v>
+        <v>14.53756522337829</v>
       </c>
       <c r="E48">
-        <v>10.63701663196014</v>
+        <v>18.24700991386779</v>
       </c>
       <c r="F48">
-        <v>4.645842390047867</v>
+        <v>7.15441242380603</v>
       </c>
       <c r="G48">
-        <v>85.80186672118134</v>
+        <v>146.2726184922704</v>
       </c>
       <c r="H48">
-        <v>2.259503236857971</v>
+        <v>3.876009541950509</v>
       </c>
       <c r="I48">
-        <v>566.1194141039815</v>
+        <v>345.3938309038753</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>575.5002441498773</v>
+        <v>194.2041402664436</v>
       </c>
       <c r="C49">
-        <v>0.3970870187340617</v>
+        <v>0.681173210328377</v>
       </c>
       <c r="D49">
-        <v>16.09955975073062</v>
+        <v>27.13678841697279</v>
       </c>
       <c r="E49">
-        <v>9.670015119963757</v>
+        <v>16.5881908307889</v>
       </c>
       <c r="F49">
-        <v>4.216995400197294</v>
+        <v>6.49400512314701</v>
       </c>
       <c r="G49">
-        <v>77.63026036678313</v>
+        <v>132.341892921578</v>
       </c>
       <c r="H49">
-        <v>0.4519006473715942</v>
+        <v>0.7752019083901017</v>
       </c>
       <c r="I49">
-        <v>683.9660624536577</v>
+        <v>378.2213926776487</v>
       </c>
     </row>
   </sheetData>
